--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://infactocom-my.sharepoint.com/personal/emre_erdogan_infakto_com_tr/Documents/Masaüstü/CO3/C03/Reporting Tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F968F96-6E0D-4FFD-AE1C-AB8D7E31881A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{8F968F96-6E0D-4FFD-AE1C-AB8D7E31881A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31868C01-6B13-49C8-887E-4B0C39584EA1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{E78E9D0A-7DE7-49FB-A17E-E9D3AD9FFBA4}"/>
   </bookViews>
@@ -300,9 +300,6 @@
     <t>D5_Belief in Democracy</t>
   </si>
   <si>
-    <t>D5_ProMarket</t>
-  </si>
-  <si>
     <t>Resilience</t>
   </si>
   <si>
@@ -319,29 +316,22 @@
   </si>
   <si>
     <t>Question</t>
+  </si>
+  <si>
+    <t>D5_ProState</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -703,7 +693,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7924BD65-5BF9-4311-9747-F05ED1A9FEFF}">
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -790,10 +782,10 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
         <v>92</v>
-      </c>
-      <c r="B2" t="s">
-        <v>93</v>
       </c>
       <c r="C2">
         <v>1991</v>
@@ -2072,7 +2064,7 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
@@ -2155,7 +2147,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
         <v>54</v>
@@ -2238,7 +2230,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -2321,7 +2313,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
@@ -2772,7 +2764,7 @@
         <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C27" s="1">
         <v>-5.6669999999999998E-2</v>
@@ -2828,10 +2820,10 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
@@ -2909,7 +2901,7 @@
   <sheetData>
     <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.25">
